--- a/VI/HMI/Data/Template Excel/X1111.xlsx
+++ b/VI/HMI/Data/Template Excel/X1111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNG_THINKPAD\Documents\g159-one-subsea-test-pressure-monitoring-system\VI\HMI\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasni\Desktop\OSS V1\HMI\Data\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0DD00C-AB69-4416-BC2D-F25AA6A490C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597203D4-C5BE-4C72-938F-B1659EEB7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F2F939B5-6682-448B-9C73-AC87332BC915}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F939B5-6682-448B-9C73-AC87332BC915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="43">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>25</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="43">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N3" s="41" t="s">
         <v>27</v>
@@ -1995,7 +1995,7 @@
       <c r="R24" s="24"/>
       <c r="S24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>

--- a/VI/HMI/Data/Template Excel/X1111.xlsx
+++ b/VI/HMI/Data/Template Excel/X1111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasni\Desktop\OSS V1\HMI\Data\Template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasni\Documents\oss-github\VI\HMI\Data\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597203D4-C5BE-4C72-938F-B1659EEB7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43F0BEC-8771-4722-A4B2-0961A853BDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2F939B5-6682-448B-9C73-AC87332BC915}"/>
+    <workbookView minimized="1" xWindow="13140" yWindow="3135" windowWidth="11295" windowHeight="11250" xr2:uid="{F2F939B5-6682-448B-9C73-AC87332BC915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,13 +227,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -256,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -347,13 +353,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -371,7 +377,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -380,13 +386,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -398,7 +404,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -411,66 +417,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -485,79 +431,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,1716 +784,1702 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="13">
         <v>5</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="15">
         <v>4000</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="13">
         <v>3</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13">
         <v>5</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="15">
         <v>4000</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="13">
         <v>15</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13">
         <v>6</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>100</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="13">
         <v>3</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="13">
         <v>100</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="13">
         <v>3</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="13">
         <v>100</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="13">
         <v>3</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13">
         <v>7</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="13">
         <v>6</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="41" t="s">
+      <c r="J7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="15">
+        <v>3000</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="13">
+        <v>3</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="15">
         <v>10000</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
+        <v>9</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="13">
         <v>3</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13">
         <v>7</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="47" t="s">
+      <c r="E12" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="41" t="s">
+      <c r="J12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M12" s="15">
         <v>10000</v>
       </c>
-      <c r="N8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="41">
+      <c r="N12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="13">
         <v>0</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41" t="s">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="13">
         <v>7</v>
       </c>
-      <c r="E9" s="41">
-        <v>8</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="47" t="s">
+      <c r="E13" s="13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="41" t="s">
+      <c r="J13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M13" s="15">
         <v>10000</v>
       </c>
-      <c r="N9" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="41">
-        <v>0</v>
-      </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41">
-        <v>7</v>
-      </c>
-      <c r="E10" s="41">
-        <v>9</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="43">
-        <v>10000</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="41">
+      <c r="N13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="13">
         <v>3</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41">
-        <v>7</v>
-      </c>
-      <c r="E11" s="41">
-        <v>10</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="43">
-        <v>10000</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="41">
-        <v>0</v>
-      </c>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41">
-        <v>7</v>
-      </c>
-      <c r="E12" s="41">
-        <v>11</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="43">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="41">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15">
-        <v>12</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="28">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="15">
-        <v>3</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
+      <c r="D14" s="13">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="13">
         <v>13</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="15">
         <v>10000</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="13">
         <v>3</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="20"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13">
         <v>7</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="13">
         <v>14</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="15">
         <v>10000</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="13">
         <v>3</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="13">
         <v>7</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="13">
         <v>15</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="15">
         <v>10000</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="13">
         <v>3</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
+      <c r="D17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <v>16</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="15">
         <v>10000</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="13">
         <v>3</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1">
+      <c r="D18" s="13">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="13">
         <v>17</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="15">
         <v>10000</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="13">
         <v>3</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
+      <c r="D19" s="13">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="13">
         <v>18</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="15">
         <v>10000</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="13">
         <v>3</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1">
+      <c r="D20" s="13">
         <v>7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="13">
         <v>19</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="15">
         <v>10000</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="13">
         <v>3</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="13">
         <v>7</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="13">
         <v>20</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="15">
         <v>10000</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="13">
         <v>3</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13">
         <v>7</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>21</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="15">
         <v>10000</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="13">
         <v>3</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15" t="s">
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1">
+      <c r="D23" s="13">
         <v>7</v>
       </c>
-      <c r="E23" s="1">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="13">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="15">
         <v>10000</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="13">
         <v>3</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="20"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13">
         <v>7</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="13">
         <v>23</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="15">
         <v>10000</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="13">
         <v>3</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22" t="s">
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35">
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="13">
         <v>8</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="13">
         <v>24</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="35" t="s">
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="15">
         <v>10000</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="19">
         <v>15</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13">
         <v>9</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>25</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="15">
         <v>10000</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="19">
         <v>15</v>
       </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15" t="s">
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1">
+      <c r="D27" s="13">
         <v>9</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="13">
         <v>26</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="J27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="15">
         <v>10000</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="19">
         <v>15</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="20"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13">
         <v>9</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="13">
         <v>27</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="15">
         <v>10000</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="19">
         <v>15</v>
       </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22" t="s">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13">
         <v>9</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="13">
         <v>28</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="15">
         <v>10000</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="19">
         <v>15</v>
       </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="18"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1">
+      <c r="D30" s="13">
         <v>9</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="13">
         <v>29</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="J30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="15">
         <v>10000</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="19">
         <v>15</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="20"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13">
         <v>9</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="13">
         <v>30</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="22" t="s">
+      <c r="J31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="15">
         <v>10000</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="19">
         <v>15</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="25"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13">
         <v>9</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="13">
         <v>31</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="L32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="20">
         <v>300</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="19">
         <v>15</v>
       </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15" t="s">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1">
+      <c r="D33" s="13">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="13">
         <v>32</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="J33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="20">
         <v>300</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="19">
         <v>15</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="20"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13">
         <v>9</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="13">
         <v>33</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="22" t="s">
+      <c r="J34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="20">
         <v>300</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="19">
         <v>15</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22" t="s">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="13">
         <v>9</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>34</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="20">
         <v>300</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="19">
         <v>15</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15" t="s">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1">
+      <c r="D36" s="13">
         <v>9</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="13">
         <v>35</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="J36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="20">
         <v>300</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="19">
         <v>15</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1" t="s">
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="20"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13">
         <v>9</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="13">
         <v>36</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="22" t="s">
+      <c r="J37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="20">
         <v>300</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="19">
         <v>15</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22" t="s">
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="25"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>